--- a/CASUAL/LA CHO/ROLLE, CARIZA PENANO.xlsx
+++ b/CASUAL/LA CHO/ROLLE, CARIZA PENANO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -209,9 +209,6 @@
     <t>VL(4-0-0)</t>
   </si>
   <si>
-    <t>QL</t>
-  </si>
-  <si>
     <t xml:space="preserve">6/7,10/2023 </t>
   </si>
   <si>
@@ -222,6 +219,27 @@
   </si>
   <si>
     <t>12/9,27,28,29</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>QL(2-0-0)</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>11/28 - 12/02/2023</t>
+  </si>
+  <si>
+    <t>12/1,2/2023</t>
+  </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>11/28-30/2023</t>
   </si>
 </sst>
 </file>
@@ -922,7 +940,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,7 +983,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1029,7 +1047,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1089,7 +1107,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1155,7 +1173,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1218,7 +1236,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1334,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1375,7 +1393,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1440,7 +1458,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1501,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1576,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1744,7 +1762,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1810,7 +1828,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +1886,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1934,7 +1952,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +2008,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2083,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2126,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2174,7 +2192,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2248,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2344,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2673,11 +2691,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -2843,7 +2861,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>20.167000000000002</v>
+        <v>11.417000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2853,7 +2871,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>26.167000000000002</v>
+        <v>26.417000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3127,7 +3145,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
       <c r="K22" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3150,7 +3168,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -3170,7 +3188,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
@@ -3190,7 +3208,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13">
@@ -3210,7 +3228,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
@@ -3230,7 +3248,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -3250,10 +3268,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C29" s="13">
         <v>1.25</v>
@@ -3269,13 +3287,13 @@
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
       <c r="K29" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39">
@@ -3291,12 +3309,12 @@
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -3316,7 +3334,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13">
@@ -3336,7 +3354,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13">
@@ -3356,18 +3374,20 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D34" s="39"/>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G34" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
@@ -3377,10 +3397,10 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B35" s="20"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
       <c r="E35" s="9"/>
@@ -3389,16 +3409,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H35" s="39"/>
+      <c r="H35" s="39">
+        <v>1</v>
+      </c>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="49">
+        <v>45206</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="40">
+        <v>45260</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="39"/>
+      <c r="D36" s="39">
+        <v>5</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
       <c r="G36" s="13" t="str">
@@ -3408,13 +3438,19 @@
       <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="39"/>
+      <c r="D37" s="39">
+        <v>2</v>
+      </c>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
       <c r="G37" s="13" t="str">
@@ -3424,13 +3460,19 @@
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
+      <c r="K37" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
-      <c r="B38" s="20"/>
+      <c r="B38" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="39"/>
+      <c r="D38" s="39">
+        <v>3</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
       <c r="G38" s="13" t="str">
@@ -3440,10 +3482,14 @@
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+      <c r="A39" s="40">
+        <v>45291</v>
+      </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
       <c r="D39" s="39"/>
@@ -4931,20 +4977,68 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
